--- a/familias_idiomas.xlsx
+++ b/familias_idiomas.xlsx
@@ -16,7 +16,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -100,31 +100,73 @@
     <t xml:space="preserve">Meridional</t>
   </si>
   <si>
+    <t xml:space="preserve">Búlgaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indo-Européia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balto-eslavico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eslavo-meridional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polonês</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eslavo-ocidental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tcheco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bielo-russo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eslavo-oriental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alemão</t>
   </si>
   <si>
-    <t xml:space="preserve">Indo-Européia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Germânico-ocidental</t>
   </si>
   <si>
     <t xml:space="preserve">Alto-alemão</t>
   </si>
   <si>
-    <t xml:space="preserve">Bielo-russo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balto-eslavico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eslavo-oriental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Búlgaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eslavo-meridional</t>
+    <t xml:space="preserve">Inglês</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angro-frísio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holandês</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indo-ariano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pashto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraniano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorani central kurdish</t>
   </si>
   <si>
     <t xml:space="preserve">Catalão</t>
@@ -139,9 +181,6 @@
     <t xml:space="preserve">Latim</t>
   </si>
   <si>
-    <t xml:space="preserve">Croata</t>
-  </si>
-  <si>
     <t xml:space="preserve">Espanhol</t>
   </si>
   <si>
@@ -151,52 +190,13 @@
     <t xml:space="preserve">Galego</t>
   </si>
   <si>
-    <t xml:space="preserve">Hindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indo-ariano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holandês</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inglês</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angro-frísio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Itália</t>
   </si>
   <si>
-    <t xml:space="preserve">Pashto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraniano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polonês</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eslavo-ocidental</t>
-  </si>
-  <si>
     <t xml:space="preserve">Português</t>
   </si>
   <si>
     <t xml:space="preserve">Romeno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorani central kurdish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tcheco</t>
   </si>
   <si>
     <t xml:space="preserve">Finlandês</t>
@@ -249,12 +249,42 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB3CAC7"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC9BA4"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FFEC9BA4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -312,7 +342,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,6 +376,66 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,7 +448,47 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF729FCF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB3CAC7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBF819E"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8F2A1"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEC9BA4"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -367,6 +497,66 @@
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3CAC7"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFE8F2A1"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFEC9BA4"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFBF819E"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -488,7 +678,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -562,50 +752,50 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -642,182 +832,174 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="B12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="B13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="B14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="B16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="D16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="B17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="D17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -826,182 +1008,190 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B23" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="D23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="E23" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="D24" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="B25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="B26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8" t="s">
+      <c r="B27" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8" t="s">
+      <c r="D28" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8" t="s">
+      <c r="B29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="23" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1039,11 +1229,11 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
